--- a/data/trans_orig/P16A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83CC3E64-66AC-48E2-84D4-88A168A2BDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDC91C96-6004-4E97-A589-A46CD00D1CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9B00493-1CC5-4EA4-86DE-1E9381F25DF2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32A25E69-A97F-4D05-B710-C193C9FACEB0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="479">
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,33%</t>
+    <t>1,14%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,67%</t>
+    <t>98,86%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,19 +116,19 @@
     <t>97,55%</t>
   </si>
   <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>1,78%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>1,63%</t>
@@ -152,31 +152,28 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>2,96%</t>
+    <t>2,97%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>2,56%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>97,04%</t>
+    <t>97,03%</t>
   </si>
   <si>
     <t>99,19%</t>
@@ -185,10 +182,7 @@
     <t>98,29%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>97,44%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,49 +191,55 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,57%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>99,43%</t>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>97,31%</t>
   </si>
   <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -248,1192 +248,1234 @@
     <t>2,99%</t>
   </si>
   <si>
-    <t>4,89%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>4,8%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
   </si>
   <si>
     <t>90,92%</t>
   </si>
   <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
+    <t>8,22%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>12,44%</t>
   </si>
   <si>
     <t>93,46%</t>
   </si>
   <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
+    <t>91,78%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>89,1%</t>
   </si>
   <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>87,56%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>7,61%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>91,45%</t>
   </si>
   <si>
-    <t>92,39%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F076864-149D-44FA-90D2-62E15F9F08B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E5C841-1481-4421-A47B-B1BF96F96369}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2157,10 +2199,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2217,13 @@
         <v>722398</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>581</v>
@@ -2190,13 +2232,13 @@
         <v>615306</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1270</v>
@@ -2205,13 +2247,13 @@
         <v>1337704</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,7 +2309,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2279,13 +2321,13 @@
         <v>8439</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -2294,13 +2336,13 @@
         <v>27202</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -2309,13 +2351,13 @@
         <v>35642</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,10 +2372,10 @@
         <v>629210</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>60</v>
@@ -2437,10 +2479,10 @@
         <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -2449,13 +2491,13 @@
         <v>35569</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -2464,13 +2506,13 @@
         <v>51114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2527,13 @@
         <v>503603</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
@@ -2500,13 +2542,13 @@
         <v>480073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>937</v>
@@ -2515,13 +2557,13 @@
         <v>983675</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,7 +2619,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2589,13 +2631,13 @@
         <v>16490</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2604,13 +2646,13 @@
         <v>31119</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -2619,13 +2661,13 @@
         <v>47609</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2682,13 @@
         <v>370220</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -2655,13 +2697,13 @@
         <v>372867</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>741</v>
@@ -2670,13 +2712,13 @@
         <v>743087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,7 +2774,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2744,13 +2786,13 @@
         <v>29132</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -2759,13 +2801,13 @@
         <v>64620</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -2774,13 +2816,13 @@
         <v>93752</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2837,13 @@
         <v>473334</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>598</v>
@@ -2810,13 +2852,13 @@
         <v>612222</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1090</v>
@@ -2825,13 +2867,13 @@
         <v>1085556</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2941,13 @@
         <v>84552</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>177</v>
@@ -2914,13 +2956,13 @@
         <v>180138</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -2929,13 +2971,13 @@
         <v>264690</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,16 +2989,16 @@
         <v>3128</v>
       </c>
       <c r="D23" s="7">
-        <v>3190973</v>
+        <v>3190974</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>3120</v>
@@ -2965,28 +3007,28 @@
         <v>3199060</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6248</v>
       </c>
       <c r="N23" s="7">
-        <v>6390032</v>
+        <v>6390033</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,7 +3040,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3028,7 +3070,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3042,7 +3084,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3064,7 +3106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6867CA-1FB6-413F-AD8F-93161B157F0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D34CB2-E39B-4054-B41C-F3EDD0276ACC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3081,7 +3123,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3188,13 +3230,13 @@
         <v>2522</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3203,13 +3245,13 @@
         <v>3906</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3218,13 +3260,13 @@
         <v>6429</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3281,13 @@
         <v>450583</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>416</v>
@@ -3254,13 +3296,13 @@
         <v>425433</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>858</v>
@@ -3269,10 +3311,10 @@
         <v>876016</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>159</v>
@@ -3346,10 +3388,10 @@
         <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3358,13 +3400,13 @@
         <v>15177</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3373,13 +3415,13 @@
         <v>31414</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3436,13 @@
         <v>670000</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H8" s="7">
         <v>556</v>
@@ -3427,10 +3469,10 @@
         <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,7 +3528,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3498,13 +3540,13 @@
         <v>19893</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3513,10 +3555,10 @@
         <v>40652</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>179</v>
@@ -3555,7 +3597,7 @@
         <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>626</v>
@@ -3564,13 +3606,13 @@
         <v>666266</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>1258</v>
@@ -3579,13 +3621,13 @@
         <v>1326426</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3695,13 @@
         <v>25695</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3668,13 +3710,13 @@
         <v>54395</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -3683,13 +3725,13 @@
         <v>80090</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3746,13 @@
         <v>588922</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>489</v>
@@ -3719,13 +3761,13 @@
         <v>559813</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>1015</v>
@@ -3734,13 +3776,13 @@
         <v>1148735</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,7 +3838,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3808,13 +3850,13 @@
         <v>14704</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -3823,13 +3865,13 @@
         <v>48145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -3838,13 +3880,13 @@
         <v>62849</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3901,13 @@
         <v>413640</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>360</v>
@@ -3874,13 +3916,13 @@
         <v>399655</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>738</v>
@@ -3889,13 +3931,13 @@
         <v>813295</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,7 +3993,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3963,13 +4005,13 @@
         <v>35732</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -3978,13 +4020,13 @@
         <v>90537</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -3993,13 +4035,13 @@
         <v>126269</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4056,13 @@
         <v>523090</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>606</v>
@@ -4029,13 +4071,13 @@
         <v>649275</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M20" s="7">
         <v>1081</v>
@@ -4044,13 +4086,13 @@
         <v>1172365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4160,13 @@
         <v>114785</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="H22" s="7">
         <v>235</v>
@@ -4133,13 +4175,13 @@
         <v>252812</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M22" s="7">
         <v>332</v>
@@ -4148,13 +4190,13 @@
         <v>367597</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4211,13 @@
         <v>3306394</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H23" s="7">
         <v>3053</v>
@@ -4184,13 +4226,13 @@
         <v>3294480</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M23" s="7">
         <v>6159</v>
@@ -4199,13 +4241,13 @@
         <v>6600873</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,7 +4303,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4283,7 +4325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D8D644-55C4-40EE-9B8C-A1188F54B4DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCFF7E2-113D-4B34-927C-28B6359DEC12}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4300,7 +4342,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4407,13 +4449,13 @@
         <v>2459</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4422,13 +4464,13 @@
         <v>8292</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4437,13 +4479,13 @@
         <v>10752</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,10 +4500,10 @@
         <v>417004</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4473,13 +4515,13 @@
         <v>387463</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M5" s="7">
         <v>787</v>
@@ -4488,13 +4530,13 @@
         <v>804466</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4604,13 @@
         <v>10954</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -4577,13 +4619,13 @@
         <v>14122</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -4592,13 +4634,13 @@
         <v>25076</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>279</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4655,13 @@
         <v>579542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H8" s="7">
         <v>564</v>
@@ -4628,13 +4670,13 @@
         <v>549422</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M8" s="7">
         <v>1120</v>
@@ -4643,10 +4685,10 @@
         <v>1128964</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>287</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>288</v>
@@ -4705,7 +4747,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4717,7 +4759,7 @@
         <v>19604</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>289</v>
@@ -4735,10 +4777,10 @@
         <v>291</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>292</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -4747,13 +4789,13 @@
         <v>55974</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,10 +4813,10 @@
         <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H11" s="7">
         <v>628</v>
@@ -4783,13 +4825,13 @@
         <v>625016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>301</v>
       </c>
       <c r="M11" s="7">
         <v>1248</v>
@@ -4798,13 +4840,13 @@
         <v>1274509</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4914,13 @@
         <v>26312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -4887,13 +4929,13 @@
         <v>50151</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -4902,13 +4944,13 @@
         <v>76464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4965,13 @@
         <v>619736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>316</v>
       </c>
       <c r="H14" s="7">
         <v>557</v>
@@ -4938,28 +4980,28 @@
         <v>598926</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>319</v>
       </c>
       <c r="M14" s="7">
         <v>1114</v>
       </c>
       <c r="N14" s="7">
-        <v>1218661</v>
+        <v>1218662</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,7 +5043,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5015,7 +5057,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5027,13 +5069,13 @@
         <v>29864</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -5042,13 +5084,13 @@
         <v>65451</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -5057,13 +5099,13 @@
         <v>95315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5120,13 @@
         <v>448054</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -5093,13 +5135,13 @@
         <v>431398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="M17" s="7">
         <v>773</v>
@@ -5108,13 +5150,13 @@
         <v>879452</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,7 +5212,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5182,13 +5224,13 @@
         <v>28971</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H19" s="7">
         <v>83</v>
@@ -5197,13 +5239,13 @@
         <v>96270</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="M19" s="7">
         <v>114</v>
@@ -5212,13 +5254,13 @@
         <v>125241</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5275,13 @@
         <v>562357</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>572</v>
@@ -5248,13 +5290,13 @@
         <v>681661</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M20" s="7">
         <v>1168</v>
@@ -5263,13 +5305,13 @@
         <v>1244018</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5379,13 @@
         <v>118165</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>161</v>
+        <v>359</v>
       </c>
       <c r="H22" s="7">
         <v>246</v>
@@ -5352,13 +5394,13 @@
         <v>270657</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M22" s="7">
         <v>359</v>
@@ -5367,13 +5409,13 @@
         <v>388822</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5430,13 @@
         <v>3276185</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>367</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="H23" s="7">
         <v>3092</v>
@@ -5403,13 +5445,13 @@
         <v>3273885</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M23" s="7">
         <v>6210</v>
@@ -5418,13 +5460,13 @@
         <v>6550070</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,7 +5522,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5502,7 +5544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3907A8-E70D-4E34-BE1A-7231A06176BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08E94B3-2BBB-4A59-AC53-76B2B1516A8A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5519,7 +5561,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5629,10 +5671,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5641,13 +5683,13 @@
         <v>2783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5662,7 +5704,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,7 +5722,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5692,10 +5734,10 @@
         <v>352174</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -5710,7 +5752,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -5781,13 +5823,13 @@
         <v>5834</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>150</v>
+        <v>385</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -5796,13 +5838,13 @@
         <v>10985</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>389</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -5811,13 +5853,13 @@
         <v>16819</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5874,13 @@
         <v>422562</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>393</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="H8" s="7">
         <v>452</v>
@@ -5847,13 +5889,13 @@
         <v>487592</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>398</v>
       </c>
       <c r="M8" s="7">
         <v>749</v>
@@ -5862,13 +5904,13 @@
         <v>910154</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,7 +5966,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5936,13 +5978,13 @@
         <v>18641</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>403</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5951,13 +5993,13 @@
         <v>29442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -5966,13 +6008,13 @@
         <v>48083</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>407</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +6029,13 @@
         <v>538611</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>410</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="H11" s="7">
         <v>805</v>
@@ -6002,13 +6044,13 @@
         <v>554034</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="M11" s="7">
         <v>1334</v>
@@ -6017,13 +6059,13 @@
         <v>1092644</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>415</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,13 +6133,13 @@
         <v>46295</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -6106,13 +6148,13 @@
         <v>65934</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -6121,13 +6163,13 @@
         <v>112230</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,13 +6184,13 @@
         <v>677695</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="H14" s="7">
         <v>1053</v>
@@ -6157,28 +6199,28 @@
         <v>681327</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="M14" s="7">
         <v>1680</v>
       </c>
       <c r="N14" s="7">
-        <v>1359022</v>
+        <v>1359021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,7 +6262,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6234,7 +6276,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6246,13 +6288,13 @@
         <v>34685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>417</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="H16" s="7">
         <v>119</v>
@@ -6261,13 +6303,13 @@
         <v>73570</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -6276,13 +6318,13 @@
         <v>108254</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>437</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6339,13 @@
         <v>564401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>424</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>880</v>
@@ -6312,13 +6354,13 @@
         <v>519356</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="M17" s="7">
         <v>1502</v>
@@ -6327,13 +6369,13 @@
         <v>1083758</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,7 +6431,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6401,13 +6443,13 @@
         <v>45606</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="H19" s="7">
         <v>254</v>
@@ -6416,13 +6458,13 @@
         <v>142200</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="M19" s="7">
         <v>321</v>
@@ -6431,13 +6473,13 @@
         <v>187806</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,13 +6494,13 @@
         <v>651628</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>1451</v>
@@ -6467,13 +6509,13 @@
         <v>882815</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="M20" s="7">
         <v>2411</v>
@@ -6482,13 +6524,13 @@
         <v>1534443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,13 +6598,13 @@
         <v>151061</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="H22" s="7">
         <v>511</v>
@@ -6571,13 +6613,13 @@
         <v>324914</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>466</v>
       </c>
       <c r="M22" s="7">
         <v>678</v>
@@ -6586,13 +6628,13 @@
         <v>475975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,16 +6646,16 @@
         <v>3207</v>
       </c>
       <c r="D23" s="7">
-        <v>3232575</v>
+        <v>3232576</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="H23" s="7">
         <v>4847</v>
@@ -6622,13 +6664,13 @@
         <v>3477298</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>474</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="M23" s="7">
         <v>8054</v>
@@ -6637,13 +6679,13 @@
         <v>6709874</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,7 +6697,7 @@
         <v>3374</v>
       </c>
       <c r="D24" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6699,7 +6741,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDC91C96-6004-4E97-A589-A46CD00D1CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F6AE73-8C1E-4558-A176-2B87AB4D00A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32A25E69-A97F-4D05-B710-C193C9FACEB0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{81739AC9-71F1-455C-A060-79C57033ABCD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="477">
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,1288 +80,1282 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,14%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>1,34%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>92,14%</t>
   </si>
   <si>
     <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
   </si>
   <si>
     <t>87,59%</t>
@@ -1887,7 +1881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E5C841-1481-4421-A47B-B1BF96F96369}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A331C8FB-0597-4527-ACED-901D79F14BD1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2199,10 +2193,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,13 +2211,13 @@
         <v>722398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>581</v>
@@ -2232,13 +2226,13 @@
         <v>615306</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1270</v>
@@ -2247,13 +2241,13 @@
         <v>1337704</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,7 +2303,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2321,13 +2315,13 @@
         <v>8439</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -2336,13 +2330,13 @@
         <v>27202</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -2351,13 +2345,13 @@
         <v>35642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,13 +2366,13 @@
         <v>629210</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>632</v>
@@ -2387,13 +2381,13 @@
         <v>662542</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1236</v>
@@ -2402,13 +2396,13 @@
         <v>1291752</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,7 +2458,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2476,13 +2470,13 @@
         <v>15544</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -2491,13 +2485,13 @@
         <v>35569</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -2506,13 +2500,13 @@
         <v>51114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,13 +2521,13 @@
         <v>503603</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
@@ -2542,13 +2536,13 @@
         <v>480073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>937</v>
@@ -2557,13 +2551,13 @@
         <v>983675</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,7 +2613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2631,13 +2625,13 @@
         <v>16490</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2646,13 +2640,13 @@
         <v>31119</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -2661,13 +2655,13 @@
         <v>47609</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,10 +2676,10 @@
         <v>370220</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>98</v>
@@ -2959,10 +2953,10 @@
         <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -2971,13 +2965,13 @@
         <v>264690</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,16 +2983,16 @@
         <v>3128</v>
       </c>
       <c r="D23" s="7">
-        <v>3190974</v>
+        <v>3190973</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>3120</v>
@@ -3007,13 +3001,13 @@
         <v>3199060</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>6248</v>
@@ -3022,13 +3016,13 @@
         <v>6390033</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,7 +3034,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3084,7 +3078,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3106,7 +3100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D34CB2-E39B-4054-B41C-F3EDD0276ACC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2D1A1B-F7C1-49EF-A55C-607DE7E20EA8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3123,7 +3117,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3230,13 +3224,13 @@
         <v>2522</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3245,13 +3239,13 @@
         <v>3906</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3260,13 +3254,13 @@
         <v>6429</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3275,13 @@
         <v>450583</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>416</v>
@@ -3296,13 +3290,13 @@
         <v>425433</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>858</v>
@@ -3311,10 +3305,10 @@
         <v>876016</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>159</v>
@@ -3388,10 +3382,10 @@
         <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3400,13 +3394,13 @@
         <v>15177</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3415,13 +3409,13 @@
         <v>31414</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3430,13 @@
         <v>670000</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7">
         <v>556</v>
@@ -3469,10 +3463,10 @@
         <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3522,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3540,13 +3534,13 @@
         <v>19893</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3555,13 +3549,13 @@
         <v>40652</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -3570,13 +3564,13 @@
         <v>60546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,7 +3591,7 @@
         <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
         <v>626</v>
@@ -3606,13 +3600,13 @@
         <v>666266</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>1258</v>
@@ -3621,13 +3615,13 @@
         <v>1326426</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,7 +3677,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3695,13 +3689,13 @@
         <v>25695</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3710,13 +3704,13 @@
         <v>54395</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -3725,13 +3719,13 @@
         <v>80090</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3740,13 @@
         <v>588922</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>489</v>
@@ -3761,13 +3755,13 @@
         <v>559813</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>1015</v>
@@ -3776,13 +3770,13 @@
         <v>1148735</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,7 +3832,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3850,13 +3844,13 @@
         <v>14704</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -3865,13 +3859,13 @@
         <v>48145</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -3880,13 +3874,13 @@
         <v>62849</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3895,13 @@
         <v>413640</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>360</v>
@@ -3916,13 +3910,13 @@
         <v>399655</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>738</v>
@@ -3931,13 +3925,13 @@
         <v>813295</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +3999,13 @@
         <v>35732</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -4020,13 +4014,13 @@
         <v>90537</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -4035,13 +4029,13 @@
         <v>126269</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4050,13 @@
         <v>523090</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>606</v>
@@ -4071,13 +4065,13 @@
         <v>649275</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M20" s="7">
         <v>1081</v>
@@ -4086,13 +4080,13 @@
         <v>1172365</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,7 +4160,7 @@
         <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>235</v>
@@ -4175,13 +4169,13 @@
         <v>252812</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>332</v>
@@ -4214,10 +4208,10 @@
         <v>252</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H23" s="7">
         <v>3053</v>
@@ -4226,10 +4220,10 @@
         <v>3294480</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>256</v>
@@ -4303,7 +4297,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4325,7 +4319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCFF7E2-113D-4B34-927C-28B6359DEC12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7051CF32-2B7C-49C9-8D31-2B6F5FA78D51}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4479,7 +4473,7 @@
         <v>10752</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>266</v>
@@ -4530,7 +4524,7 @@
         <v>804466</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>273</v>
@@ -4610,7 +4604,7 @@
         <v>276</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -4634,13 +4628,13 @@
         <v>25076</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,7 +4652,7 @@
         <v>282</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>283</v>
@@ -4685,10 +4679,10 @@
         <v>1128964</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>288</v>
@@ -4747,7 +4741,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4759,7 +4753,7 @@
         <v>19604</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>289</v>
@@ -4902,7 +4896,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4914,13 +4908,13 @@
         <v>26312</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -4929,13 +4923,13 @@
         <v>50151</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -4944,13 +4938,13 @@
         <v>76464</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4959,13 @@
         <v>619736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>314</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H14" s="7">
         <v>557</v>
@@ -4980,28 +4974,28 @@
         <v>598926</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M14" s="7">
         <v>1114</v>
       </c>
       <c r="N14" s="7">
-        <v>1218662</v>
+        <v>1218661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,7 +5037,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5057,7 +5051,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5069,13 +5063,13 @@
         <v>29864</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>165</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -5084,13 +5078,13 @@
         <v>65451</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -5099,13 +5093,13 @@
         <v>95315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5114,13 @@
         <v>448054</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -5135,13 +5129,13 @@
         <v>431398</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M17" s="7">
         <v>773</v>
@@ -5150,13 +5144,13 @@
         <v>879452</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5218,13 @@
         <v>28971</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H19" s="7">
         <v>83</v>
@@ -5239,13 +5233,13 @@
         <v>96270</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M19" s="7">
         <v>114</v>
@@ -5254,13 +5248,13 @@
         <v>125241</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5269,13 @@
         <v>562357</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H20" s="7">
         <v>572</v>
@@ -5290,13 +5284,13 @@
         <v>681661</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>1168</v>
@@ -5305,13 +5299,13 @@
         <v>1244018</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5373,13 @@
         <v>118165</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H22" s="7">
         <v>246</v>
@@ -5394,13 +5388,13 @@
         <v>270657</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M22" s="7">
         <v>359</v>
@@ -5409,13 +5403,13 @@
         <v>388822</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5424,13 @@
         <v>3276185</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H23" s="7">
         <v>3092</v>
@@ -5445,13 +5439,13 @@
         <v>3273885</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M23" s="7">
         <v>6210</v>
@@ -5460,13 +5454,13 @@
         <v>6550070</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,7 +5516,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5544,7 +5538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08E94B3-2BBB-4A59-AC53-76B2B1516A8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA4AB5E-750E-483B-9B24-9686EB4B6AC8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5561,7 +5555,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5671,10 +5665,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5683,13 +5677,13 @@
         <v>2783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5704,7 +5698,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,7 +5716,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5734,10 +5728,10 @@
         <v>352174</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -5752,7 +5746,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -5823,13 +5817,13 @@
         <v>5834</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>385</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -5838,13 +5832,13 @@
         <v>10985</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -5853,13 +5847,13 @@
         <v>16819</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>386</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5868,13 @@
         <v>422562</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>393</v>
+        <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H8" s="7">
         <v>452</v>
@@ -5889,13 +5883,13 @@
         <v>487592</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>397</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M8" s="7">
         <v>749</v>
@@ -5904,13 +5898,13 @@
         <v>910154</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,7 +5960,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5978,13 +5972,13 @@
         <v>18641</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5993,13 +5987,13 @@
         <v>29442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -6008,13 +6002,13 @@
         <v>48083</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>407</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>91</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6023,13 @@
         <v>538611</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H11" s="7">
         <v>805</v>
@@ -6044,13 +6038,13 @@
         <v>554034</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M11" s="7">
         <v>1334</v>
@@ -6059,13 +6053,13 @@
         <v>1092644</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>415</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>101</v>
+        <v>409</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,7 +6115,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6133,13 +6127,13 @@
         <v>46295</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -6148,13 +6142,13 @@
         <v>65934</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -6163,13 +6157,13 @@
         <v>112230</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,13 +6178,13 @@
         <v>677695</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H14" s="7">
         <v>1053</v>
@@ -6199,13 +6193,13 @@
         <v>681327</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M14" s="7">
         <v>1680</v>
@@ -6214,13 +6208,13 @@
         <v>1359021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,7 +6270,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6288,13 +6282,13 @@
         <v>34685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>427</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H16" s="7">
         <v>119</v>
@@ -6303,13 +6297,13 @@
         <v>73570</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -6318,13 +6312,13 @@
         <v>108254</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6333,13 @@
         <v>564401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>436</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>438</v>
       </c>
       <c r="H17" s="7">
         <v>880</v>
@@ -6354,13 +6348,13 @@
         <v>519356</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M17" s="7">
         <v>1502</v>
@@ -6369,13 +6363,13 @@
         <v>1083758</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,13 +6437,13 @@
         <v>45606</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H19" s="7">
         <v>254</v>
@@ -6458,13 +6452,13 @@
         <v>142200</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M19" s="7">
         <v>321</v>
@@ -6473,13 +6467,13 @@
         <v>187806</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,13 +6488,13 @@
         <v>651628</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H20" s="7">
         <v>1451</v>
@@ -6509,13 +6503,13 @@
         <v>882815</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M20" s="7">
         <v>2411</v>
@@ -6524,13 +6518,13 @@
         <v>1534443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6592,13 @@
         <v>151061</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H22" s="7">
         <v>511</v>
@@ -6613,13 +6607,13 @@
         <v>324914</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M22" s="7">
         <v>678</v>
@@ -6628,13 +6622,13 @@
         <v>475975</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6643,13 @@
         <v>3232576</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H23" s="7">
         <v>4847</v>
@@ -6664,13 +6658,13 @@
         <v>3477298</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M23" s="7">
         <v>8054</v>
@@ -6679,13 +6673,13 @@
         <v>6709874</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,7 +6735,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F6AE73-8C1E-4558-A176-2B87AB4D00A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F21094-054E-4FFC-A700-2D5D2E744009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{81739AC9-71F1-455C-A060-79C57033ABCD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{400B2F3A-CA6B-4C86-83D1-8C6097128426}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="465">
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -80,1396 +80,1360 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
     <t>1,36%</t>
   </si>
   <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>97,06%</t>
   </si>
   <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
     <t>96,79%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>91,18%</t>
   </si>
   <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>7,74%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>92,26%</t>
   </si>
   <si>
     <t>87,59%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>8,22%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>12,44%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
   </si>
   <si>
     <t>93,46%</t>
   </si>
   <si>
-    <t>91,78%</t>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
   </si>
   <si>
     <t>89,1%</t>
   </si>
   <si>
-    <t>87,56%</t>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>7,61%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>91,45%</t>
   </si>
   <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>92,39%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A331C8FB-0597-4527-ACED-901D79F14BD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B65B990-4E17-4AC5-AC76-FC3064CBA0F9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2321,7 +2285,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -2330,13 +2294,13 @@
         <v>27202</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -2345,13 +2309,13 @@
         <v>35642</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,13 +2330,13 @@
         <v>629210</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>632</v>
@@ -2381,13 +2345,13 @@
         <v>662542</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1236</v>
@@ -2396,13 +2360,13 @@
         <v>1291752</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,7 +2422,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2470,13 +2434,13 @@
         <v>15544</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -2485,13 +2449,13 @@
         <v>35569</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -2500,13 +2464,13 @@
         <v>51114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2485,13 @@
         <v>503603</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
@@ -2536,13 +2500,13 @@
         <v>480073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>937</v>
@@ -2551,13 +2515,13 @@
         <v>983675</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,7 +2577,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2625,13 +2589,13 @@
         <v>16490</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2640,13 +2604,13 @@
         <v>31119</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -2655,13 +2619,13 @@
         <v>47609</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2640,13 @@
         <v>370220</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -2691,13 +2655,13 @@
         <v>372867</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>741</v>
@@ -2706,13 +2670,13 @@
         <v>743087</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,7 +2732,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2780,13 +2744,13 @@
         <v>29132</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -2795,13 +2759,13 @@
         <v>64620</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -2810,13 +2774,13 @@
         <v>93752</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2795,13 @@
         <v>473334</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>598</v>
@@ -2846,13 +2810,13 @@
         <v>612222</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1090</v>
@@ -2861,13 +2825,13 @@
         <v>1085556</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2899,13 @@
         <v>84552</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>177</v>
@@ -2950,13 +2914,13 @@
         <v>180138</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -2965,13 +2929,13 @@
         <v>264690</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2950,13 @@
         <v>3190973</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>3120</v>
@@ -3001,19 +2965,19 @@
         <v>3199060</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>6248</v>
       </c>
       <c r="N23" s="7">
-        <v>6390033</v>
+        <v>6390032</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>137</v>
@@ -3064,7 +3028,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3100,7 +3064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2D1A1B-F7C1-49EF-A55C-607DE7E20EA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E57E55-7017-42AD-ADAB-658F45EF0107}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3382,7 +3346,7 @@
         <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>161</v>
@@ -3436,7 +3400,7 @@
         <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="H8" s="7">
         <v>556</v>
@@ -3537,7 +3501,7 @@
         <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>177</v>
@@ -3552,10 +3516,10 @@
         <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -3564,13 +3528,13 @@
         <v>60546</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,7 +3555,7 @@
         <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>626</v>
@@ -3606,7 +3570,7 @@
         <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="M11" s="7">
         <v>1258</v>
@@ -3615,10 +3579,10 @@
         <v>1326426</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>189</v>
@@ -3677,7 +3641,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3832,7 +3796,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3859,13 +3823,13 @@
         <v>48145</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -3874,13 +3838,13 @@
         <v>62849</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3859,13 @@
         <v>413640</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>360</v>
@@ -3910,13 +3874,13 @@
         <v>399655</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>738</v>
@@ -3925,13 +3889,13 @@
         <v>813295</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,7 +3951,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3999,13 +3963,13 @@
         <v>35732</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -4014,13 +3978,13 @@
         <v>90537</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -4029,13 +3993,13 @@
         <v>126269</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4014,13 @@
         <v>523090</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H20" s="7">
         <v>606</v>
@@ -4065,13 +4029,13 @@
         <v>649275</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M20" s="7">
         <v>1081</v>
@@ -4080,13 +4044,13 @@
         <v>1172365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4118,13 @@
         <v>114785</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H22" s="7">
         <v>235</v>
@@ -4169,13 +4133,13 @@
         <v>252812</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>245</v>
       </c>
       <c r="M22" s="7">
         <v>332</v>
@@ -4184,13 +4148,13 @@
         <v>367597</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4169,13 @@
         <v>3306394</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H23" s="7">
         <v>3053</v>
@@ -4220,13 +4184,13 @@
         <v>3294480</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M23" s="7">
         <v>6159</v>
@@ -4235,13 +4199,13 @@
         <v>6600873</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,7 +4283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7051CF32-2B7C-49C9-8D31-2B6F5FA78D51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF7AD34-0E6E-499C-AFC1-8CDFC495D39A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4336,7 +4300,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4443,13 +4407,13 @@
         <v>2459</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4458,13 +4422,13 @@
         <v>8292</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4476,10 +4440,10 @@
         <v>51</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>267</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,10 +4458,10 @@
         <v>417004</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4509,13 +4473,13 @@
         <v>387463</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M5" s="7">
         <v>787</v>
@@ -4524,13 +4488,13 @@
         <v>804466</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>273</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4562,13 @@
         <v>10954</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -4613,13 +4577,13 @@
         <v>14122</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -4628,13 +4592,13 @@
         <v>25076</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4613,13 @@
         <v>579542</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H8" s="7">
         <v>564</v>
@@ -4664,13 +4628,13 @@
         <v>549422</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M8" s="7">
         <v>1120</v>
@@ -4679,7 +4643,7 @@
         <v>1128964</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>287</v>
@@ -4771,10 +4735,10 @@
         <v>291</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -4783,13 +4747,13 @@
         <v>55974</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,10 +4771,10 @@
         <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H11" s="7">
         <v>628</v>
@@ -4819,13 +4783,13 @@
         <v>625016</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>1248</v>
@@ -4834,13 +4798,13 @@
         <v>1274509</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,7 +4860,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4908,13 +4872,13 @@
         <v>26312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -4923,13 +4887,13 @@
         <v>50151</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -4938,13 +4902,13 @@
         <v>76464</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,13 +4923,13 @@
         <v>619736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>310</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>557</v>
@@ -4974,13 +4938,13 @@
         <v>598926</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>1114</v>
@@ -4989,13 +4953,13 @@
         <v>1218661</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,7 +5015,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5063,13 +5027,13 @@
         <v>29864</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -5078,13 +5042,13 @@
         <v>65451</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -5093,13 +5057,13 @@
         <v>95315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5078,13 @@
         <v>448054</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -5129,13 +5093,13 @@
         <v>431398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>773</v>
@@ -5144,13 +5108,13 @@
         <v>879452</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,7 +5170,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5218,13 +5182,13 @@
         <v>28971</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H19" s="7">
         <v>83</v>
@@ -5233,13 +5197,13 @@
         <v>96270</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M19" s="7">
         <v>114</v>
@@ -5248,13 +5212,13 @@
         <v>125241</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5233,13 @@
         <v>562357</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H20" s="7">
         <v>572</v>
@@ -5284,13 +5248,13 @@
         <v>681661</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>1168</v>
@@ -5299,13 +5263,13 @@
         <v>1244018</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5337,13 @@
         <v>118165</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>355</v>
+        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>246</v>
@@ -5388,13 +5352,13 @@
         <v>270657</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>359</v>
@@ -5403,13 +5367,13 @@
         <v>388822</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5388,13 @@
         <v>3276185</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>363</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H23" s="7">
         <v>3092</v>
@@ -5439,13 +5403,13 @@
         <v>3273885</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M23" s="7">
         <v>6210</v>
@@ -5454,13 +5418,13 @@
         <v>6550070</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,7 +5502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA4AB5E-750E-483B-9B24-9686EB4B6AC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96874D27-19C5-4F2A-B0B1-9C5143F47926}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5555,7 +5519,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5665,10 +5629,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5677,13 +5641,13 @@
         <v>2783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5698,7 +5662,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,7 +5680,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5728,10 +5692,10 @@
         <v>352174</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -5746,7 +5710,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -5817,13 +5781,13 @@
         <v>5834</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -5832,13 +5796,13 @@
         <v>10985</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>384</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -5847,13 +5811,13 @@
         <v>16819</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>386</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +5832,13 @@
         <v>422562</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H8" s="7">
         <v>452</v>
@@ -5883,13 +5847,13 @@
         <v>487592</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>391</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>749</v>
@@ -5898,13 +5862,13 @@
         <v>910154</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>394</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +5936,13 @@
         <v>18641</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>397</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5987,13 +5951,13 @@
         <v>29442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -6002,13 +5966,13 @@
         <v>48083</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>402</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +5987,13 @@
         <v>538611</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>404</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="H11" s="7">
         <v>805</v>
@@ -6038,13 +6002,13 @@
         <v>554034</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="M11" s="7">
         <v>1334</v>
@@ -6053,13 +6017,13 @@
         <v>1092644</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>409</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,7 +6079,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6127,13 +6091,13 @@
         <v>46295</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -6142,13 +6106,13 @@
         <v>65934</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -6157,13 +6121,13 @@
         <v>112230</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,13 +6142,13 @@
         <v>677695</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H14" s="7">
         <v>1053</v>
@@ -6193,28 +6157,28 @@
         <v>681327</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M14" s="7">
         <v>1680</v>
       </c>
       <c r="N14" s="7">
-        <v>1359021</v>
+        <v>1359022</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,7 +6220,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6270,7 +6234,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6282,13 +6246,13 @@
         <v>34685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>428</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="H16" s="7">
         <v>119</v>
@@ -6297,13 +6261,13 @@
         <v>73570</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -6312,13 +6276,13 @@
         <v>108254</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>433</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,13 +6297,13 @@
         <v>564401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>438</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>880</v>
@@ -6348,13 +6312,13 @@
         <v>519356</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="M17" s="7">
         <v>1502</v>
@@ -6363,13 +6327,13 @@
         <v>1083758</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,7 +6389,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6437,13 +6401,13 @@
         <v>45606</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="H19" s="7">
         <v>254</v>
@@ -6452,13 +6416,13 @@
         <v>142200</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="M19" s="7">
         <v>321</v>
@@ -6467,13 +6431,13 @@
         <v>187806</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,13 +6452,13 @@
         <v>651628</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="H20" s="7">
         <v>1451</v>
@@ -6503,13 +6467,13 @@
         <v>882815</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="M20" s="7">
         <v>2411</v>
@@ -6518,13 +6482,13 @@
         <v>1534443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6592,13 +6556,13 @@
         <v>151061</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="H22" s="7">
         <v>511</v>
@@ -6607,13 +6571,13 @@
         <v>324914</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>464</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>678</v>
@@ -6622,13 +6586,13 @@
         <v>475975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,16 +6604,16 @@
         <v>3207</v>
       </c>
       <c r="D23" s="7">
-        <v>3232576</v>
+        <v>3232575</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="H23" s="7">
         <v>4847</v>
@@ -6658,13 +6622,13 @@
         <v>3477298</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>472</v>
+        <v>116</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="M23" s="7">
         <v>8054</v>
@@ -6673,13 +6637,13 @@
         <v>6709874</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,7 +6655,7 @@
         <v>3374</v>
       </c>
       <c r="D24" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F21094-054E-4FFC-A700-2D5D2E744009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13361AE0-367E-4681-BFC3-12F6B58E24C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{400B2F3A-CA6B-4C86-83D1-8C6097128426}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F26B7078-C954-4928-8614-CDB2C95DE1B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="524">
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,78%</t>
@@ -191,7 +191,7 @@
     <t>98,87%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,32%</t>
@@ -242,7 +242,7 @@
     <t>98,08%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -293,7 +293,7 @@
     <t>96,39%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>4,26%</t>
@@ -350,1090 +350,1267 @@
     <t>95,35%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
   </si>
 </sst>
 </file>
@@ -1845,8 +2022,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B65B990-4E17-4AC5-AC76-FC3064CBA0F9}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84ECE5C3-C220-4383-862C-1B418DAD873F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2738,10 +2915,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>29132</v>
+        <v>14528</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -2753,34 +2930,34 @@
         <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I19" s="7">
-        <v>64620</v>
+        <v>37291</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>55</v>
+      </c>
+      <c r="N19" s="7">
+        <v>51820</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="7">
-        <v>94</v>
-      </c>
-      <c r="N19" s="7">
-        <v>93752</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,49 +2966,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>492</v>
+        <v>288</v>
       </c>
       <c r="D20" s="7">
-        <v>473334</v>
+        <v>278055</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>331</v>
+      </c>
+      <c r="I20" s="7">
+        <v>305643</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="7">
-        <v>598</v>
-      </c>
-      <c r="I20" s="7">
-        <v>612222</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="7">
+        <v>619</v>
+      </c>
+      <c r="N20" s="7">
+        <v>583697</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="M20" s="7">
-        <v>1090</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1085556</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,10 +3017,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2855,10 +3032,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2870,10 +3047,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2887,55 +3064,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>84552</v>
+        <v>14603</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>23</v>
+      </c>
+      <c r="I22" s="7">
+        <v>27329</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="7">
-        <v>177</v>
-      </c>
-      <c r="I22" s="7">
-        <v>180138</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>39</v>
+      </c>
+      <c r="N22" s="7">
+        <v>41932</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="M22" s="7">
-        <v>262</v>
-      </c>
-      <c r="N22" s="7">
-        <v>264690</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,49 +3121,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3128</v>
+        <v>204</v>
       </c>
       <c r="D23" s="7">
-        <v>3190973</v>
+        <v>195280</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>267</v>
+      </c>
+      <c r="I23" s="7">
+        <v>306579</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="7">
-        <v>3120</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3199060</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>471</v>
+      </c>
+      <c r="N23" s="7">
+        <v>501859</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="7">
-        <v>6248</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6390032</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,63 +3172,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>85</v>
+      </c>
+      <c r="D25" s="7">
+        <v>84552</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="7">
+        <v>177</v>
+      </c>
+      <c r="I25" s="7">
+        <v>180138</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" s="7">
+        <v>262</v>
+      </c>
+      <c r="N25" s="7">
+        <v>264690</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3128</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3190973</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3120</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3199059</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6248</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6390032</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275525</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654722</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3064,8 +3397,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E57E55-7017-42AD-ADAB-658F45EF0107}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF60455-0BA0-4796-94FD-8D4FB66BD786}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3081,7 +3414,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3188,13 +3521,13 @@
         <v>2522</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3203,13 +3536,13 @@
         <v>3906</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3218,13 +3551,13 @@
         <v>6429</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3572,13 @@
         <v>450583</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>416</v>
@@ -3254,13 +3587,13 @@
         <v>425433</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>858</v>
@@ -3269,13 +3602,13 @@
         <v>876016</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3676,13 @@
         <v>16238</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -3358,13 +3691,13 @@
         <v>15177</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -3373,13 +3706,13 @@
         <v>31414</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,10 +3727,10 @@
         <v>670000</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>59</v>
@@ -3409,13 +3742,13 @@
         <v>594037</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>1209</v>
@@ -3424,13 +3757,13 @@
         <v>1264037</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3831,13 @@
         <v>19893</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3513,13 +3846,13 @@
         <v>40652</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -3528,13 +3861,13 @@
         <v>60546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,10 +3882,10 @@
         <v>660161</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>41</v>
@@ -3564,13 +3897,13 @@
         <v>666266</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>1258</v>
@@ -3579,13 +3912,13 @@
         <v>1326426</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3986,13 @@
         <v>25695</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3668,13 +4001,13 @@
         <v>54395</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -3683,13 +4016,13 @@
         <v>80090</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +4037,13 @@
         <v>588922</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>489</v>
@@ -3719,13 +4052,13 @@
         <v>559813</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>1015</v>
@@ -3734,13 +4067,13 @@
         <v>1148735</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +4141,13 @@
         <v>14704</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -3826,10 +4159,10 @@
         <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -3838,13 +4171,13 @@
         <v>62849</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +4192,13 @@
         <v>413640</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>360</v>
@@ -3877,10 +4210,10 @@
         <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>738</v>
@@ -3889,13 +4222,13 @@
         <v>813295</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,49 +4290,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>35732</v>
+        <v>16389</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H19" s="7">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>90537</v>
+        <v>38452</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="N19" s="7">
-        <v>126269</v>
+        <v>54841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,49 +4341,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>475</v>
+        <v>269</v>
       </c>
       <c r="D20" s="7">
-        <v>523090</v>
+        <v>293397</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H20" s="7">
-        <v>606</v>
+        <v>304</v>
       </c>
       <c r="I20" s="7">
-        <v>649275</v>
+        <v>314607</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="M20" s="7">
-        <v>1081</v>
+        <v>573</v>
       </c>
       <c r="N20" s="7">
-        <v>1172365</v>
+        <v>608004</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,10 +4392,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>503</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>558822</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4074,10 +4407,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>691</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>739812</v>
+        <v>353059</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4089,10 +4422,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1194</v>
+        <v>625</v>
       </c>
       <c r="N21" s="7">
-        <v>1298634</v>
+        <v>662845</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4106,55 +4439,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="D22" s="7">
-        <v>114785</v>
+        <v>19344</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="H22" s="7">
-        <v>235</v>
+        <v>46</v>
       </c>
       <c r="I22" s="7">
-        <v>252812</v>
+        <v>52084</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="M22" s="7">
-        <v>332</v>
+        <v>61</v>
       </c>
       <c r="N22" s="7">
-        <v>367597</v>
+        <v>71428</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,49 +4496,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3106</v>
+        <v>206</v>
       </c>
       <c r="D23" s="7">
-        <v>3306394</v>
+        <v>229692</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="H23" s="7">
-        <v>3053</v>
+        <v>302</v>
       </c>
       <c r="I23" s="7">
-        <v>3294480</v>
+        <v>334669</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="M23" s="7">
-        <v>6159</v>
+        <v>508</v>
       </c>
       <c r="N23" s="7">
-        <v>6600873</v>
+        <v>564361</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,63 +4547,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249036</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>348</v>
+      </c>
+      <c r="I24" s="7">
+        <v>386753</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>569</v>
+      </c>
+      <c r="N24" s="7">
+        <v>635789</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>97</v>
+      </c>
+      <c r="D25" s="7">
+        <v>114785</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H25" s="7">
+        <v>235</v>
+      </c>
+      <c r="I25" s="7">
+        <v>252812</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M25" s="7">
+        <v>332</v>
+      </c>
+      <c r="N25" s="7">
+        <v>367597</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3106</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3306394</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3053</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3294480</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6159</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6600874</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3203</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3421179</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3288</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3547292</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6491</v>
       </c>
-      <c r="N24" s="7">
-        <v>6968470</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6968471</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4283,8 +4772,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF7AD34-0E6E-499C-AFC1-8CDFC495D39A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530EC89E-E55D-478E-94E7-278E6887D6D2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4300,7 +4789,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4407,13 +4896,13 @@
         <v>2459</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4422,13 +4911,13 @@
         <v>8292</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4440,10 +4929,10 @@
         <v>51</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,10 +4947,10 @@
         <v>417004</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4473,13 +4962,13 @@
         <v>387463</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>787</v>
@@ -4491,10 +4980,10 @@
         <v>59</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +5051,13 @@
         <v>10954</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -4577,13 +5066,13 @@
         <v>14122</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -4592,13 +5081,13 @@
         <v>25076</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +5102,13 @@
         <v>579542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
         <v>564</v>
@@ -4628,13 +5117,13 @@
         <v>549422</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>1120</v>
@@ -4643,13 +5132,13 @@
         <v>1128964</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +5206,13 @@
         <v>19604</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -4732,13 +5221,13 @@
         <v>36370</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -4747,13 +5236,13 @@
         <v>55974</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +5257,13 @@
         <v>649493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>628</v>
@@ -4783,13 +5272,13 @@
         <v>625016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>1248</v>
@@ -4798,13 +5287,13 @@
         <v>1274509</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +5361,13 @@
         <v>26312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -4887,13 +5376,13 @@
         <v>50151</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -4902,13 +5391,13 @@
         <v>76464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +5412,13 @@
         <v>619736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>557</v>
@@ -4938,13 +5427,13 @@
         <v>598926</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>1114</v>
@@ -4953,13 +5442,13 @@
         <v>1218661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5516,13 @@
         <v>29864</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>225</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -5042,13 +5531,13 @@
         <v>65451</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -5057,13 +5546,13 @@
         <v>95315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5567,13 @@
         <v>448054</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>375</v>
@@ -5093,13 +5582,13 @@
         <v>431398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>773</v>
@@ -5108,13 +5597,13 @@
         <v>879452</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,49 +5665,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>28971</v>
+        <v>13381</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="H19" s="7">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="I19" s="7">
-        <v>96270</v>
+        <v>47389</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="M19" s="7">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="N19" s="7">
-        <v>125241</v>
+        <v>60770</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,49 +5716,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>596</v>
+        <v>312</v>
       </c>
       <c r="D20" s="7">
-        <v>562357</v>
+        <v>320949</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="H20" s="7">
-        <v>572</v>
+        <v>308</v>
       </c>
       <c r="I20" s="7">
-        <v>681661</v>
+        <v>330373</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="M20" s="7">
-        <v>1168</v>
+        <v>620</v>
       </c>
       <c r="N20" s="7">
-        <v>1244018</v>
+        <v>651322</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,10 +5767,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5293,10 +5782,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5308,10 +5797,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5325,55 +5814,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>118165</v>
+        <v>15591</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>161</v>
+        <v>384</v>
       </c>
       <c r="H22" s="7">
-        <v>246</v>
+        <v>37</v>
       </c>
       <c r="I22" s="7">
-        <v>270657</v>
+        <v>48881</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="M22" s="7">
-        <v>359</v>
+        <v>55</v>
       </c>
       <c r="N22" s="7">
-        <v>388822</v>
+        <v>64471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,49 +5871,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3118</v>
+        <v>284</v>
       </c>
       <c r="D23" s="7">
-        <v>3276185</v>
+        <v>241407</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>391</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="H23" s="7">
-        <v>3092</v>
+        <v>264</v>
       </c>
       <c r="I23" s="7">
-        <v>3273885</v>
+        <v>351288</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="M23" s="7">
-        <v>6210</v>
+        <v>548</v>
       </c>
       <c r="N23" s="7">
-        <v>6550070</v>
+        <v>592696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,63 +5922,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>113</v>
+      </c>
+      <c r="D25" s="7">
+        <v>118165</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" s="7">
+        <v>246</v>
+      </c>
+      <c r="I25" s="7">
+        <v>270657</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="M25" s="7">
+        <v>359</v>
+      </c>
+      <c r="N25" s="7">
+        <v>388822</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3118</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3276185</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3092</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3273885</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6210</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6550070</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5502,8 +6147,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96874D27-19C5-4F2A-B0B1-9C5143F47926}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CF018C-7CA1-42E0-BE2D-4907293C1BA4}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5519,7 +6164,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5629,40 +6274,40 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2783</v>
+        <v>2536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>370</v>
+        <v>36</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>2783</v>
+        <v>2536</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>418</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +6319,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5689,13 +6334,13 @@
         <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>352174</v>
+        <v>310664</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>374</v>
+        <v>46</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -5704,13 +6349,13 @@
         <v>378</v>
       </c>
       <c r="N5" s="7">
-        <v>729853</v>
+        <v>710651</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>421</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -5725,7 +6370,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5740,7 +6385,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5755,7 +6400,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5778,46 +6423,46 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>5834</v>
+        <v>6080</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>150</v>
+        <v>422</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>10985</v>
+        <v>9428</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>379</v>
+        <v>320</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>425</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>16819</v>
+        <v>15509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,46 +6474,46 @@
         <v>297</v>
       </c>
       <c r="D8" s="7">
-        <v>422562</v>
+        <v>417467</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>429</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="H8" s="7">
         <v>452</v>
       </c>
       <c r="I8" s="7">
-        <v>487592</v>
+        <v>502076</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>433</v>
       </c>
       <c r="M8" s="7">
         <v>749</v>
       </c>
       <c r="N8" s="7">
-        <v>910154</v>
+        <v>919542</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,7 +6525,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5895,7 +6540,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5910,7 +6555,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5933,46 +6578,46 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>18641</v>
+        <v>17928</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>438</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>29442</v>
+        <v>27350</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
       </c>
       <c r="N10" s="7">
-        <v>48083</v>
+        <v>45278</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,46 +6629,46 @@
         <v>529</v>
       </c>
       <c r="D11" s="7">
-        <v>538611</v>
+        <v>518410</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>444</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="H11" s="7">
         <v>805</v>
       </c>
       <c r="I11" s="7">
-        <v>554034</v>
+        <v>515118</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="M11" s="7">
         <v>1334</v>
       </c>
       <c r="N11" s="7">
-        <v>1092644</v>
+        <v>1033528</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>25</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>448</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,7 +6680,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6050,7 +6695,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6065,7 +6710,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6088,46 +6733,46 @@
         <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>46295</v>
+        <v>43667</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>224</v>
+        <v>450</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
       </c>
       <c r="I13" s="7">
-        <v>65934</v>
+        <v>59039</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
       </c>
       <c r="N13" s="7">
-        <v>112230</v>
+        <v>102705</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,46 +6784,46 @@
         <v>627</v>
       </c>
       <c r="D14" s="7">
-        <v>677695</v>
+        <v>844119</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>459</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="H14" s="7">
         <v>1053</v>
       </c>
       <c r="I14" s="7">
-        <v>681327</v>
+        <v>653842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="M14" s="7">
         <v>1680</v>
       </c>
       <c r="N14" s="7">
-        <v>1359022</v>
+        <v>1497962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,7 +6835,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6205,7 +6850,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6220,7 +6865,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6243,46 +6888,46 @@
         <v>40</v>
       </c>
       <c r="D16" s="7">
-        <v>34685</v>
+        <v>32229</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>417</v>
+        <v>190</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>468</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="H16" s="7">
         <v>119</v>
       </c>
       <c r="I16" s="7">
-        <v>73570</v>
+        <v>67068</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
       </c>
       <c r="N16" s="7">
-        <v>108254</v>
+        <v>99298</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>473</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,46 +6939,46 @@
         <v>622</v>
       </c>
       <c r="D17" s="7">
-        <v>564401</v>
+        <v>528008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>424</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>477</v>
       </c>
       <c r="H17" s="7">
         <v>880</v>
       </c>
       <c r="I17" s="7">
-        <v>519356</v>
+        <v>477201</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="M17" s="7">
         <v>1502</v>
       </c>
       <c r="N17" s="7">
-        <v>1083758</v>
+        <v>1005208</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,7 +6990,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6360,7 +7005,7 @@
         <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>592926</v>
+        <v>544269</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6375,7 +7020,7 @@
         <v>1661</v>
       </c>
       <c r="N18" s="7">
-        <v>1192012</v>
+        <v>1104506</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6395,49 +7040,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>45606</v>
+        <v>18720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="H19" s="7">
-        <v>254</v>
+        <v>112</v>
       </c>
       <c r="I19" s="7">
-        <v>142200</v>
+        <v>54402</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>434</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>436</v>
+        <v>261</v>
       </c>
       <c r="M19" s="7">
-        <v>321</v>
+        <v>141</v>
       </c>
       <c r="N19" s="7">
-        <v>187806</v>
+        <v>73122</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>438</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,49 +7091,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>960</v>
+        <v>541</v>
       </c>
       <c r="D20" s="7">
-        <v>651628</v>
+        <v>349445</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="H20" s="7">
-        <v>1451</v>
+        <v>715</v>
       </c>
       <c r="I20" s="7">
-        <v>882815</v>
+        <v>553966</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>443</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>444</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="M20" s="7">
-        <v>2411</v>
+        <v>1256</v>
       </c>
       <c r="N20" s="7">
-        <v>1534443</v>
+        <v>903411</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>448</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6497,10 +7142,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697234</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6512,10 +7157,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025015</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6527,10 +7172,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1722249</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6544,55 +7189,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7">
-        <v>151061</v>
+        <v>23089</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>449</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>451</v>
+        <v>496</v>
       </c>
       <c r="H22" s="7">
-        <v>511</v>
+        <v>142</v>
       </c>
       <c r="I22" s="7">
-        <v>324914</v>
+        <v>71063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>452</v>
+        <v>497</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>453</v>
+        <v>498</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>499</v>
       </c>
       <c r="M22" s="7">
-        <v>678</v>
+        <v>180</v>
       </c>
       <c r="N22" s="7">
-        <v>475975</v>
+        <v>94153</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,49 +7246,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3207</v>
+        <v>419</v>
       </c>
       <c r="D23" s="7">
-        <v>3232575</v>
+        <v>259180</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>457</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>458</v>
+        <v>503</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>459</v>
+        <v>345</v>
       </c>
       <c r="H23" s="7">
-        <v>4847</v>
+        <v>736</v>
       </c>
       <c r="I23" s="7">
-        <v>3477298</v>
+        <v>353331</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>505</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="M23" s="7">
-        <v>8054</v>
+        <v>1155</v>
       </c>
       <c r="N23" s="7">
-        <v>6709874</v>
+        <v>612510</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>464</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,63 +7297,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282269</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424394</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706663</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>167</v>
+      </c>
+      <c r="D25" s="7">
+        <v>141714</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H25" s="7">
+        <v>511</v>
+      </c>
+      <c r="I25" s="7">
+        <v>290887</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="M25" s="7">
+        <v>678</v>
+      </c>
+      <c r="N25" s="7">
+        <v>432601</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3207</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3316616</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4847</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3366197</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8054</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6682813</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383636</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458330</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5358</v>
       </c>
-      <c r="I24" s="7">
-        <v>3802212</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657084</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8732</v>
       </c>
-      <c r="N24" s="7">
-        <v>7185849</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7115414</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
